--- a/2. hasil evaluasi M1/hasil evaluasi M1.xlsx
+++ b/2. hasil evaluasi M1/hasil evaluasi M1.xlsx
@@ -5,23 +5,24 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\1. Laporan hasil\2. hasil M1 - tanpa random state\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Koding Data Science\tensorflow-hotspot-v2\2. hasil evaluasi M1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366E49EC-3F3A-4EF6-8E0A-9A0A31935CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D3190B-7BDA-4E0D-8E82-814207264F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="M1 normalize" sheetId="2" r:id="rId1"/>
     <sheet name="M1 inverse" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="14">
   <si>
     <t>Runing</t>
   </si>
@@ -57,6 +58,12 @@
   </si>
   <si>
     <t>avg</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Ar</t>
   </si>
 </sst>
 </file>
@@ -525,7 +532,7 @@
   </sheetPr>
   <dimension ref="A5:T27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
@@ -1749,16 +1756,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1772,7 +1779,7 @@
   <dimension ref="A5:T27"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3006,17 +3013,40 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="Q5:T5"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="L23:O23"/>
     <mergeCell ref="Q23:T23"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="Q5:T5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6909DAA8-5DDD-4EFF-BE37-3E689C5584AD}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>